--- a/Final Project/GM3044_Final Portfolio.xlsx
+++ b/Final Project/GM3044_Final Portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ganghua Mei\Dropbox\My PC (LAPTOP-RTNIC9JS)\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B7762-9312-411B-9875-3FA9AC54B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2534EB90-F03C-4DC9-8A03-77066A345000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="16637" windowHeight="8983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Data" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,12 +746,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -776,16 +770,16 @@
     <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -824,9 +818,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -851,34 +842,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -914,13 +896,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,9 +921,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,6 +1030,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>My Portfolio</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1408,6 +1384,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>SP500</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1974,6 +1953,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>My Portfolio</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2050,6 +2032,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>SP500</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4138,2130 +4123,2122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="AF18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="AS29" sqref="AS29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="14" style="51" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="51"/>
-    <col min="3" max="3" width="13" style="51" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" style="51"/>
-    <col min="8" max="8" width="10" style="51" customWidth="1"/>
-    <col min="9" max="12" width="8.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" style="51"/>
-    <col min="15" max="18" width="8.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="51"/>
-    <col min="20" max="20" width="13" style="51" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="51"/>
-    <col min="26" max="26" width="8.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="8.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" style="51"/>
-    <col min="32" max="32" width="13.109375" style="51" customWidth="1"/>
-    <col min="33" max="33" width="11.5546875" style="51" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" style="51" customWidth="1"/>
-    <col min="35" max="35" width="23.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="51" customWidth="1"/>
-    <col min="37" max="37" width="27.44140625" style="51" customWidth="1"/>
-    <col min="38" max="38" width="26.6640625" style="51" customWidth="1"/>
-    <col min="39" max="39" width="28.6640625" style="51" customWidth="1"/>
-    <col min="40" max="16384" width="8.6640625" style="51"/>
+    <col min="1" max="1" width="14" style="47" customWidth="1"/>
+    <col min="2" max="2" width="8.65234375" style="47"/>
+    <col min="3" max="3" width="13" style="47" customWidth="1"/>
+    <col min="4" max="7" width="8.65234375" style="47"/>
+    <col min="8" max="8" width="10" style="47" customWidth="1"/>
+    <col min="9" max="12" width="8.765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.65234375" style="47"/>
+    <col min="15" max="18" width="8.765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.65234375" style="47"/>
+    <col min="20" max="20" width="13" style="47" customWidth="1"/>
+    <col min="21" max="21" width="11.65234375" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.65234375" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.65234375" style="47"/>
+    <col min="26" max="26" width="8.765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.65234375" style="47" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="8.765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.65234375" style="47"/>
+    <col min="32" max="32" width="13.11328125" style="47" customWidth="1"/>
+    <col min="33" max="33" width="11.53515625" style="47" customWidth="1"/>
+    <col min="34" max="34" width="12.11328125" style="47" customWidth="1"/>
+    <col min="35" max="35" width="23.34375" style="47" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.34375" style="47" customWidth="1"/>
+    <col min="37" max="37" width="27.421875" style="47" customWidth="1"/>
+    <col min="38" max="38" width="26.65234375" style="47" customWidth="1"/>
+    <col min="39" max="39" width="28.65234375" style="47" customWidth="1"/>
+    <col min="40" max="16384" width="8.65234375" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" thickBot="1"/>
-    <row r="4" spans="1:39" ht="16.2" thickBot="1">
-      <c r="A4" s="52" t="s">
+    <row r="3" spans="1:39" ht="15.25" thickBot="1"/>
+    <row r="4" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="70" t="s">
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="70" t="s">
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="70" t="s">
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="53" t="s">
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="53" t="s">
+      <c r="AG4" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="AH4" s="53" t="s">
+      <c r="AH4" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AI4" s="53" t="s">
+      <c r="AI4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AJ4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AK4" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="AL4" s="53" t="s">
+      <c r="AL4" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AM4" s="48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="A5" s="54">
+      <c r="A5" s="49">
         <v>44725</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="47">
         <v>42.930000305175703</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="47">
         <v>45.220001220703097</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="47">
         <v>84.489997863769503</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="47">
         <v>103.31999969482401</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="47">
         <v>1200</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="47">
         <v>1200</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="47">
         <v>600</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="47">
         <v>600</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="50">
         <f>1000000-SUM(U5:X5)</f>
         <v>781533.9996337893</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="47">
         <f>I5*O5</f>
         <v>51516.000366210843</v>
       </c>
-      <c r="V5" s="51">
+      <c r="V5" s="47">
         <f t="shared" ref="V5:X5" si="0">J5*P5</f>
         <v>54264.001464843714</v>
       </c>
-      <c r="W5" s="51">
+      <c r="W5" s="47">
         <f t="shared" si="0"/>
         <v>50693.998718261704</v>
       </c>
-      <c r="X5" s="51">
+      <c r="X5" s="47">
         <f t="shared" si="0"/>
         <v>61991.9998168944</v>
       </c>
-      <c r="Z5" s="57">
+      <c r="Z5" s="51">
         <f>T5/AF5</f>
         <v>0.78153399963378933</v>
       </c>
-      <c r="AA5" s="57">
+      <c r="AA5" s="51">
         <f>U5/AF5</f>
         <v>5.1516000366210846E-2</v>
       </c>
-      <c r="AB5" s="57">
+      <c r="AB5" s="51">
         <f>V5/AF5</f>
         <v>5.4264001464843711E-2</v>
       </c>
-      <c r="AC5" s="57">
+      <c r="AC5" s="51">
         <f>W5/AF5</f>
         <v>5.0693998718261704E-2</v>
       </c>
-      <c r="AD5" s="57">
+      <c r="AD5" s="51">
         <f>X5/AF5</f>
         <v>6.1991999816894398E-2</v>
       </c>
-      <c r="AF5" s="56">
+      <c r="AF5" s="50">
         <f>SUM(T5:X5)</f>
         <v>1000000</v>
       </c>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AJ5" s="59">
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AJ5" s="53">
         <v>3749.6298830000001</v>
       </c>
-      <c r="AL5" s="60"/>
+      <c r="AL5" s="54"/>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="54">
+      <c r="A6" s="49">
         <v>44726</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="I6" s="51">
+      <c r="I6" s="47">
         <v>42.580001831054602</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="47">
         <v>45.169998168945298</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="47">
         <v>88.059997558593693</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="47">
         <v>106.86000061035099</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="47">
         <v>1200</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="47">
         <v>1200</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="47">
         <v>600</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="47">
         <v>600</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="50">
         <f>T5-(O6-O5)*I6-(P6-P5)*J6-(Q6-Q5)*K6-(R6-R5)*L6</f>
         <v>781533.9996337893</v>
       </c>
-      <c r="U6" s="51">
+      <c r="U6" s="47">
         <f t="shared" ref="U6:U15" si="1">I6*O6</f>
         <v>51096.002197265523</v>
       </c>
-      <c r="V6" s="51">
+      <c r="V6" s="47">
         <f t="shared" ref="V6:V15" si="2">J6*P6</f>
         <v>54203.99780273436</v>
       </c>
-      <c r="W6" s="51">
+      <c r="W6" s="47">
         <f t="shared" ref="W6:W15" si="3">K6*Q6</f>
         <v>52835.998535156214</v>
       </c>
-      <c r="X6" s="51">
+      <c r="X6" s="47">
         <f t="shared" ref="X6:Y15" si="4">L6*R6</f>
         <v>64116.000366210596</v>
       </c>
-      <c r="Z6" s="57">
+      <c r="Z6" s="51">
         <f t="shared" ref="Z6:Z14" si="5">T6/AF6</f>
         <v>0.77858627314417284</v>
       </c>
-      <c r="AA6" s="57">
+      <c r="AA6" s="51">
         <f t="shared" ref="AA6:AA14" si="6">U6/AF6</f>
         <v>5.0903282444496031E-2</v>
       </c>
-      <c r="AB6" s="57">
+      <c r="AB6" s="51">
         <f t="shared" ref="AB6:AB14" si="7">V6/AF6</f>
         <v>5.3999555564468206E-2</v>
       </c>
-      <c r="AC6" s="57">
+      <c r="AC6" s="51">
         <f t="shared" ref="AC6:AC14" si="8">W6/AF6</f>
         <v>5.2636716005464101E-2</v>
       </c>
-      <c r="AD6" s="57">
+      <c r="AD6" s="51">
         <f t="shared" ref="AD6:AD14" si="9">X6/AF6</f>
         <v>6.3874172841398763E-2</v>
       </c>
-      <c r="AF6" s="56">
+      <c r="AF6" s="50">
         <f t="shared" ref="AF6:AF13" si="10">SUM(T6:X6)</f>
         <v>1003785.998535156</v>
       </c>
-      <c r="AG6" s="61">
+      <c r="AG6" s="55">
         <f t="shared" ref="AG6:AG12" si="11">AF6-AF5</f>
         <v>3785.9985351560172</v>
       </c>
-      <c r="AH6" s="60">
+      <c r="AH6" s="54">
         <f t="shared" ref="AH6:AH15" si="12">AG6/AF5</f>
         <v>3.7859985351560172E-3</v>
       </c>
-      <c r="AI6" s="60">
+      <c r="AI6" s="54">
         <f>1+AH6</f>
         <v>1.003785998535156</v>
       </c>
-      <c r="AJ6" s="59">
+      <c r="AJ6" s="53">
         <v>3735.4799800000001</v>
       </c>
-      <c r="AK6" s="62">
+      <c r="AK6" s="56">
         <f>AJ6-AJ5</f>
         <v>-14.149902999999995</v>
       </c>
-      <c r="AL6" s="60">
+      <c r="AL6" s="54">
         <f>AK6/AJ5</f>
         <v>-3.7736799208243333E-3</v>
       </c>
-      <c r="AM6" s="60">
+      <c r="AM6" s="54">
         <f>1*(1+AL6)</f>
         <v>0.99622632007917566</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="54">
+      <c r="A7" s="49">
         <v>44727</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="I7" s="51">
+      <c r="I7" s="47">
         <v>43.509998321533203</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="47">
         <v>46.080001831054602</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="47">
         <v>87.870002746582003</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="47">
         <v>112.930000305175</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="47">
         <v>1200</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="47">
         <v>1200</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="47">
         <v>600</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="47">
         <v>600</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="50">
         <f t="shared" ref="T7:T13" si="13">T6-(O7-O6)*I7-(P7-P6)*J7-(Q7-Q6)*K7-(R7-R6)*L7</f>
         <v>781533.9996337893</v>
       </c>
-      <c r="U7" s="51">
+      <c r="U7" s="47">
         <f t="shared" si="1"/>
         <v>52211.997985839844</v>
       </c>
-      <c r="V7" s="51">
+      <c r="V7" s="47">
         <f t="shared" si="2"/>
         <v>55296.002197265523</v>
       </c>
-      <c r="W7" s="51">
+      <c r="W7" s="47">
         <f t="shared" si="3"/>
         <v>52722.001647949204</v>
       </c>
-      <c r="X7" s="51">
+      <c r="X7" s="47">
         <f t="shared" si="4"/>
         <v>67758.000183105003</v>
       </c>
-      <c r="Z7" s="57">
+      <c r="Z7" s="51">
         <f t="shared" si="5"/>
         <v>0.77416242375897626</v>
       </c>
-      <c r="AA7" s="57">
+      <c r="AA7" s="51">
         <f t="shared" si="6"/>
         <v>5.1719524587486666E-2</v>
       </c>
-      <c r="AB7" s="57">
+      <c r="AB7" s="51">
         <f t="shared" si="7"/>
         <v>5.4774439890363999E-2</v>
       </c>
-      <c r="AC7" s="57">
+      <c r="AC7" s="51">
         <f t="shared" si="8"/>
         <v>5.222471779900343E-2</v>
       </c>
-      <c r="AD7" s="57">
+      <c r="AD7" s="51">
         <f t="shared" si="9"/>
         <v>6.7118893964169674E-2</v>
       </c>
-      <c r="AF7" s="56">
+      <c r="AF7" s="50">
         <f t="shared" si="10"/>
         <v>1009522.0016479489</v>
       </c>
-      <c r="AG7" s="61">
+      <c r="AG7" s="55">
         <f t="shared" si="11"/>
         <v>5736.0031127928523</v>
       </c>
-      <c r="AH7" s="60">
+      <c r="AH7" s="54">
         <f t="shared" si="12"/>
         <v>5.7143685219394483E-3</v>
       </c>
-      <c r="AI7" s="60">
+      <c r="AI7" s="54">
         <f>AI6*(1+AH7)</f>
         <v>1.0095220016479489</v>
       </c>
-      <c r="AJ7" s="59">
+      <c r="AJ7" s="53">
         <v>3789.98999</v>
       </c>
-      <c r="AK7" s="62">
+      <c r="AK7" s="56">
         <f t="shared" ref="AK7:AK15" si="14">AJ7-AJ6</f>
         <v>54.510009999999966</v>
       </c>
-      <c r="AL7" s="60">
+      <c r="AL7" s="54">
         <f t="shared" ref="AL7:AL15" si="15">AK7/AJ6</f>
         <v>1.4592504923557363E-2</v>
       </c>
-      <c r="AM7" s="60">
+      <c r="AM7" s="54">
         <f t="shared" ref="AM7:AM15" si="16">1*(1+AL7)</f>
         <v>1.0145925049235573</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="54">
+      <c r="A8" s="49">
         <v>44728</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="I8" s="51">
+      <c r="I8" s="47">
         <v>41.080001831054602</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="47">
         <v>44.970001220703097</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="47">
         <v>87.889999389648395</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="47">
         <v>106.08999633789</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="47">
         <v>2400</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="47">
         <v>2400</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="47">
         <v>1200</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="47">
         <v>1200</v>
       </c>
-      <c r="T8" s="56">
+      <c r="T8" s="50">
         <f t="shared" si="13"/>
         <v>561885.99853515695</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="47">
         <f t="shared" si="1"/>
         <v>98592.004394531046</v>
       </c>
-      <c r="V8" s="51">
+      <c r="V8" s="47">
         <f t="shared" si="2"/>
         <v>107928.00292968743</v>
       </c>
-      <c r="W8" s="51">
+      <c r="W8" s="47">
         <f t="shared" si="3"/>
         <v>105467.99926757807</v>
       </c>
-      <c r="X8" s="51">
+      <c r="X8" s="47">
         <f t="shared" si="4"/>
         <v>127307.99560546799</v>
       </c>
-      <c r="Z8" s="57">
+      <c r="Z8" s="51">
         <f t="shared" si="5"/>
         <v>0.56122263297193264</v>
       </c>
-      <c r="AA8" s="57">
+      <c r="AA8" s="51">
         <f t="shared" si="6"/>
         <v>9.8475606155929096E-2</v>
       </c>
-      <c r="AB8" s="57">
+      <c r="AB8" s="51">
         <f t="shared" si="7"/>
         <v>0.10780058256214352</v>
       </c>
-      <c r="AC8" s="57">
+      <c r="AC8" s="51">
         <f t="shared" si="8"/>
         <v>0.10534348319328778</v>
       </c>
-      <c r="AD8" s="57">
+      <c r="AD8" s="51">
         <f t="shared" si="9"/>
         <v>0.12715769511670702</v>
       </c>
-      <c r="AF8" s="56">
+      <c r="AF8" s="50">
         <f t="shared" si="10"/>
         <v>1001182.0007324214</v>
       </c>
-      <c r="AG8" s="61">
+      <c r="AG8" s="55">
         <f t="shared" si="11"/>
         <v>-8340.0009155274602</v>
       </c>
-      <c r="AH8" s="60">
+      <c r="AH8" s="54">
         <f t="shared" si="12"/>
         <v>-8.2613364561774788E-3</v>
       </c>
-      <c r="AI8" s="60">
+      <c r="AI8" s="54">
         <f t="shared" ref="AI8:AI16" si="17">AI7*(1+AH8)</f>
         <v>1.0011820007324215</v>
       </c>
-      <c r="AJ8" s="59">
+      <c r="AJ8" s="53">
         <v>3666.7700199999999</v>
       </c>
-      <c r="AK8" s="62">
+      <c r="AK8" s="56">
         <f t="shared" si="14"/>
         <v>-123.2199700000001</v>
       </c>
-      <c r="AL8" s="60">
+      <c r="AL8" s="54">
         <f t="shared" si="15"/>
         <v>-3.2511951304652419E-2</v>
       </c>
-      <c r="AM8" s="60">
+      <c r="AM8" s="54">
         <f t="shared" si="16"/>
         <v>0.96748804869534755</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="54">
+      <c r="A9" s="49">
         <v>44729</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="I9" s="51">
+      <c r="I9" s="47">
         <v>42.209999084472599</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="47">
         <v>44.25</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="47">
         <v>88.120002746582003</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="47">
         <v>110</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="47">
         <v>2400</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="47">
         <v>2400</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="47">
         <v>1200</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="47">
         <v>1200</v>
       </c>
-      <c r="T9" s="56">
+      <c r="T9" s="50">
         <f t="shared" si="13"/>
         <v>561885.99853515695</v>
       </c>
-      <c r="U9" s="51">
+      <c r="U9" s="47">
         <f t="shared" si="1"/>
         <v>101303.99780273424</v>
       </c>
-      <c r="V9" s="51">
+      <c r="V9" s="47">
         <f t="shared" si="2"/>
         <v>106200</v>
       </c>
-      <c r="W9" s="51">
+      <c r="W9" s="47">
         <f t="shared" si="3"/>
         <v>105744.00329589841</v>
       </c>
-      <c r="X9" s="51">
+      <c r="X9" s="47">
         <f t="shared" si="4"/>
         <v>132000</v>
       </c>
-      <c r="Z9" s="57">
+      <c r="Z9" s="51">
         <f t="shared" si="5"/>
         <v>0.55790589806268864</v>
       </c>
-      <c r="AA9" s="57">
+      <c r="AA9" s="51">
         <f t="shared" si="6"/>
         <v>0.10058641435952916</v>
       </c>
-      <c r="AB9" s="57">
+      <c r="AB9" s="51">
         <f t="shared" si="7"/>
         <v>0.10544773589077129</v>
       </c>
-      <c r="AC9" s="57">
+      <c r="AC9" s="51">
         <f t="shared" si="8"/>
         <v>0.10499496922390532</v>
       </c>
-      <c r="AD9" s="57">
+      <c r="AD9" s="51">
         <f t="shared" si="9"/>
         <v>0.13106498246310555</v>
       </c>
-      <c r="AF9" s="56">
+      <c r="AF9" s="50">
         <f t="shared" si="10"/>
         <v>1007133.9996337896</v>
       </c>
-      <c r="AG9" s="61">
+      <c r="AG9" s="55">
         <f t="shared" si="11"/>
         <v>5951.9989013682352</v>
       </c>
-      <c r="AH9" s="60">
+      <c r="AH9" s="54">
         <f t="shared" si="12"/>
         <v>5.9449719401807165E-3</v>
       </c>
-      <c r="AI9" s="60">
+      <c r="AI9" s="54">
         <f t="shared" si="17"/>
         <v>1.0071339996337898</v>
       </c>
-      <c r="AJ9" s="59">
+      <c r="AJ9" s="53">
         <v>3674.8400879999999</v>
       </c>
-      <c r="AK9" s="62">
+      <c r="AK9" s="56">
         <f t="shared" si="14"/>
         <v>8.070067999999992</v>
       </c>
-      <c r="AL9" s="60">
+      <c r="AL9" s="54">
         <f t="shared" si="15"/>
         <v>2.2008655999647317E-3</v>
       </c>
-      <c r="AM9" s="60">
+      <c r="AM9" s="54">
         <f t="shared" si="16"/>
         <v>1.0022008655999648</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="54">
+      <c r="A10" s="49">
         <v>44733</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="I10" s="51">
+      <c r="I10" s="47">
         <v>42.290000915527301</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="47">
         <v>45.049999237060497</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="47">
         <v>90.839996337890597</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="47">
         <v>113.81999969482401</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="47">
         <v>3600</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="47">
         <v>3600</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="47">
         <v>2400</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="47">
         <v>2400</v>
       </c>
-      <c r="T10" s="56">
+      <c r="T10" s="50">
         <f t="shared" si="13"/>
         <v>211486.00311279405</v>
       </c>
-      <c r="U10" s="51">
+      <c r="U10" s="47">
         <f t="shared" si="1"/>
         <v>152244.00329589829</v>
       </c>
-      <c r="V10" s="51">
+      <c r="V10" s="47">
         <f t="shared" si="2"/>
         <v>162179.99725341779</v>
       </c>
-      <c r="W10" s="51">
+      <c r="W10" s="47">
         <f t="shared" si="3"/>
         <v>218015.99121093744</v>
       </c>
-      <c r="X10" s="51">
+      <c r="X10" s="47">
         <f t="shared" si="4"/>
         <v>273167.9992675776</v>
       </c>
-      <c r="Z10" s="57">
+      <c r="Z10" s="51">
         <f t="shared" si="5"/>
         <v>0.20793162119837827</v>
       </c>
-      <c r="AA10" s="57">
+      <c r="AA10" s="51">
         <f t="shared" si="6"/>
         <v>0.14968528392947011</v>
       </c>
-      <c r="AB10" s="57">
+      <c r="AB10" s="51">
         <f t="shared" si="7"/>
         <v>0.15945428661236838</v>
       </c>
-      <c r="AC10" s="57">
+      <c r="AC10" s="51">
         <f t="shared" si="8"/>
         <v>0.21435186174228274</v>
       </c>
-      <c r="AD10" s="57">
+      <c r="AD10" s="51">
         <f t="shared" si="9"/>
         <v>0.26857694651750041</v>
       </c>
-      <c r="AF10" s="56">
+      <c r="AF10" s="50">
         <f t="shared" si="10"/>
         <v>1017093.9941406252</v>
       </c>
-      <c r="AG10" s="61">
+      <c r="AG10" s="55">
         <f t="shared" si="11"/>
         <v>9959.9945068355883</v>
       </c>
-      <c r="AH10" s="60">
+      <c r="AH10" s="54">
         <f t="shared" si="12"/>
         <v>9.8894432225078346E-3</v>
       </c>
-      <c r="AI10" s="60">
+      <c r="AI10" s="54">
         <f t="shared" si="17"/>
         <v>1.0170939941406254</v>
       </c>
-      <c r="AJ10" s="59">
+      <c r="AJ10" s="53">
         <v>3764.790039</v>
       </c>
-      <c r="AK10" s="62">
+      <c r="AK10" s="56">
         <f t="shared" si="14"/>
         <v>89.949951000000056</v>
       </c>
-      <c r="AL10" s="60">
+      <c r="AL10" s="54">
         <f t="shared" si="15"/>
         <v>2.4477242232587744E-2</v>
       </c>
-      <c r="AM10" s="60">
+      <c r="AM10" s="54">
         <f t="shared" si="16"/>
         <v>1.0244772422325878</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="54">
+      <c r="A11" s="49">
         <v>44734</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="I11" s="51">
+      <c r="I11" s="47">
         <v>43.130001068115199</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="47">
         <v>44.569999694824197</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="47">
         <v>90.739997863769503</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="47">
         <v>115.169998168945</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="47">
         <v>3600</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="47">
         <v>3600</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="47">
         <v>2400</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="47">
         <v>2400</v>
       </c>
-      <c r="T11" s="56">
+      <c r="T11" s="50">
         <f t="shared" si="13"/>
         <v>211486.00311279405</v>
       </c>
-      <c r="U11" s="51">
+      <c r="U11" s="47">
         <f t="shared" si="1"/>
         <v>155268.00384521473</v>
       </c>
-      <c r="V11" s="51">
+      <c r="V11" s="47">
         <f t="shared" si="2"/>
         <v>160451.9989013671</v>
       </c>
-      <c r="W11" s="51">
+      <c r="W11" s="47">
         <f t="shared" si="3"/>
         <v>217775.99487304682</v>
       </c>
-      <c r="X11" s="51">
+      <c r="X11" s="47">
         <f t="shared" si="4"/>
         <v>276407.99560546799</v>
       </c>
-      <c r="Z11" s="57">
+      <c r="Z11" s="51">
         <f t="shared" si="5"/>
         <v>0.20705705349676384</v>
       </c>
-      <c r="AA11" s="57">
+      <c r="AA11" s="51">
         <f t="shared" si="6"/>
         <v>0.15201637415866154</v>
       </c>
-      <c r="AB11" s="57">
+      <c r="AB11" s="51">
         <f t="shared" si="7"/>
         <v>0.15709180575162718</v>
       </c>
-      <c r="AC11" s="57">
+      <c r="AC11" s="51">
         <f t="shared" si="8"/>
         <v>0.21321531995992191</v>
       </c>
-      <c r="AD11" s="57">
+      <c r="AD11" s="51">
         <f t="shared" si="9"/>
         <v>0.27061944663302556</v>
       </c>
-      <c r="AF11" s="56">
+      <c r="AF11" s="50">
         <f t="shared" si="10"/>
         <v>1021389.9963378906</v>
       </c>
-      <c r="AG11" s="61">
+      <c r="AG11" s="55">
         <f t="shared" si="11"/>
         <v>4296.0021972653922</v>
       </c>
-      <c r="AH11" s="60">
+      <c r="AH11" s="54">
         <f t="shared" si="12"/>
         <v>4.2238005749854219E-3</v>
       </c>
-      <c r="AI11" s="60">
+      <c r="AI11" s="54">
         <f t="shared" si="17"/>
         <v>1.021389996337891</v>
       </c>
-      <c r="AJ11" s="59">
+      <c r="AJ11" s="53">
         <v>3759.889893</v>
       </c>
-      <c r="AK11" s="62">
+      <c r="AK11" s="56">
         <f t="shared" si="14"/>
         <v>-4.9001459999999497</v>
       </c>
-      <c r="AL11" s="60">
+      <c r="AL11" s="54">
         <f t="shared" si="15"/>
         <v>-1.3015721857629866E-3</v>
       </c>
-      <c r="AM11" s="60">
+      <c r="AM11" s="54">
         <f t="shared" si="16"/>
         <v>0.99869842781423701</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="54">
+      <c r="A12" s="49">
         <v>44735</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="I12" s="51">
+      <c r="I12" s="47">
         <v>42.970001220703097</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="47">
         <v>45.680000305175703</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="47">
         <v>92.180000305175696</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="47">
         <v>117.669998168945</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="47">
         <v>3600</v>
       </c>
-      <c r="P12" s="51">
+      <c r="P12" s="47">
         <v>3600</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="47">
         <v>2400</v>
       </c>
-      <c r="R12" s="51">
+      <c r="R12" s="47">
         <v>2400</v>
       </c>
-      <c r="T12" s="56">
+      <c r="T12" s="50">
         <f t="shared" si="13"/>
         <v>211486.00311279405</v>
       </c>
-      <c r="U12" s="51">
+      <c r="U12" s="47">
         <f t="shared" si="1"/>
         <v>154692.00439453113</v>
       </c>
-      <c r="V12" s="51">
+      <c r="V12" s="47">
         <f t="shared" si="2"/>
         <v>164448.00109863252</v>
       </c>
-      <c r="W12" s="51">
+      <c r="W12" s="47">
         <f t="shared" si="3"/>
         <v>221232.00073242167</v>
       </c>
-      <c r="X12" s="51">
+      <c r="X12" s="47">
         <f t="shared" si="4"/>
         <v>282407.99560546799</v>
       </c>
-      <c r="Z12" s="57">
+      <c r="Z12" s="51">
         <f t="shared" si="5"/>
         <v>0.20447931393072916</v>
       </c>
-      <c r="AA12" s="57">
+      <c r="AA12" s="51">
         <f t="shared" si="6"/>
         <v>0.14956694279333846</v>
       </c>
-      <c r="AB12" s="57">
+      <c r="AB12" s="51">
         <f t="shared" si="7"/>
         <v>0.1589997160426449</v>
       </c>
-      <c r="AC12" s="57">
+      <c r="AC12" s="51">
         <f t="shared" si="8"/>
         <v>0.21390241937269594</v>
       </c>
-      <c r="AD12" s="57">
+      <c r="AD12" s="51">
         <f t="shared" si="9"/>
         <v>0.27305160786059146</v>
       </c>
-      <c r="AF12" s="56">
+      <c r="AF12" s="50">
         <f t="shared" si="10"/>
         <v>1034266.0049438474</v>
       </c>
-      <c r="AG12" s="61">
+      <c r="AG12" s="55">
         <f t="shared" si="11"/>
         <v>12876.008605956798</v>
       </c>
-      <c r="AH12" s="60">
+      <c r="AH12" s="54">
         <f t="shared" si="12"/>
         <v>1.2606358640796036E-2</v>
       </c>
-      <c r="AI12" s="60">
+      <c r="AI12" s="54">
         <f t="shared" si="17"/>
         <v>1.0342660049438479</v>
       </c>
-      <c r="AJ12" s="59">
+      <c r="AJ12" s="53">
         <v>3795.7299800000001</v>
       </c>
-      <c r="AK12" s="62">
+      <c r="AK12" s="56">
         <f t="shared" si="14"/>
         <v>35.84008700000004</v>
       </c>
-      <c r="AL12" s="60">
+      <c r="AL12" s="54">
         <f t="shared" si="15"/>
         <v>9.5322171712330078E-3</v>
       </c>
-      <c r="AM12" s="60">
+      <c r="AM12" s="54">
         <f t="shared" si="16"/>
         <v>1.0095322171712331</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="54">
+      <c r="A13" s="49">
         <v>44736</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="I13" s="51">
+      <c r="I13" s="47">
         <v>45.669998168945298</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="47">
         <v>47.069999694824197</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="47">
         <v>94.580001831054602</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="47">
         <v>122.639999389648</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="47">
         <v>3600</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="47">
         <v>3600</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="47">
         <v>2400</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="47">
         <v>2400</v>
       </c>
-      <c r="T13" s="56">
+      <c r="T13" s="50">
         <f t="shared" si="13"/>
         <v>211486.00311279405</v>
       </c>
-      <c r="U13" s="51">
+      <c r="U13" s="47">
         <f t="shared" si="1"/>
         <v>164411.99340820307</v>
       </c>
-      <c r="V13" s="51">
+      <c r="V13" s="47">
         <f t="shared" si="2"/>
         <v>169451.9989013671</v>
       </c>
-      <c r="W13" s="51">
+      <c r="W13" s="47">
         <f t="shared" si="3"/>
         <v>226992.00439453105</v>
       </c>
-      <c r="X13" s="51">
+      <c r="X13" s="47">
         <f t="shared" si="4"/>
         <v>294335.9985351552</v>
       </c>
-      <c r="Z13" s="57">
+      <c r="Z13" s="51">
         <f t="shared" si="5"/>
         <v>0.19826602164807605</v>
       </c>
-      <c r="AA13" s="57">
+      <c r="AA13" s="51">
         <f t="shared" si="6"/>
         <v>0.15413460637812831</v>
       </c>
-      <c r="AB13" s="57">
+      <c r="AB13" s="51">
         <f t="shared" si="7"/>
         <v>0.15885956133262302</v>
       </c>
-      <c r="AC13" s="57">
+      <c r="AC13" s="51">
         <f t="shared" si="8"/>
         <v>0.21280274341949423</v>
       </c>
-      <c r="AD13" s="57">
+      <c r="AD13" s="51">
         <f t="shared" si="9"/>
         <v>0.27593706722167854</v>
       </c>
-      <c r="AF13" s="56">
+      <c r="AF13" s="50">
         <f t="shared" si="10"/>
         <v>1066677.9983520503</v>
       </c>
-      <c r="AG13" s="61">
+      <c r="AG13" s="55">
         <f>AF13-AF12</f>
         <v>32411.993408202892</v>
       </c>
-      <c r="AH13" s="60">
+      <c r="AH13" s="54">
         <f t="shared" si="12"/>
         <v>3.1338159867260268E-2</v>
       </c>
-      <c r="AI13" s="60">
+      <c r="AI13" s="54">
         <f t="shared" si="17"/>
         <v>1.0666779983520507</v>
       </c>
-      <c r="AJ13" s="59">
+      <c r="AJ13" s="53">
         <v>3911.73999</v>
       </c>
-      <c r="AK13" s="62">
+      <c r="AK13" s="56">
         <f t="shared" si="14"/>
         <v>116.01000999999997</v>
       </c>
-      <c r="AL13" s="60">
+      <c r="AL13" s="54">
         <f t="shared" si="15"/>
         <v>3.056329365135714E-2</v>
       </c>
-      <c r="AM13" s="60">
+      <c r="AM13" s="54">
         <f t="shared" si="16"/>
         <v>1.0305632936513571</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="54">
+      <c r="A14" s="49">
         <v>44736</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="55" t="str">
+      <c r="G14" s="47" t="str">
         <f>$G$15</f>
         <v>BIO</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="47">
         <v>213.570007</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="47">
         <v>449.790009</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="47">
         <v>77.559997999999993</v>
       </c>
-      <c r="L14" s="51">
+      <c r="L14" s="47">
         <v>122.32</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="47">
         <v>507.69000199999999</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="47">
         <v>100</v>
       </c>
-      <c r="P14" s="51">
+      <c r="P14" s="47">
         <v>50</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="47">
         <v>1000</v>
       </c>
-      <c r="R14" s="51">
+      <c r="R14" s="47">
         <v>150</v>
       </c>
-      <c r="S14" s="51">
+      <c r="S14" s="47">
         <v>70</v>
       </c>
-      <c r="T14" s="63">
+      <c r="T14" s="57">
         <f>1066678-SUM(U14:Y14)</f>
         <v>891385.20071</v>
       </c>
-      <c r="U14" s="51">
+      <c r="U14" s="47">
         <f t="shared" si="1"/>
         <v>21357.000700000001</v>
       </c>
-      <c r="V14" s="51">
+      <c r="V14" s="47">
         <f t="shared" si="2"/>
         <v>22489.50045</v>
       </c>
-      <c r="W14" s="51">
+      <c r="W14" s="47">
         <f t="shared" si="3"/>
         <v>77559.997999999992</v>
       </c>
-      <c r="X14" s="51">
+      <c r="X14" s="47">
         <f t="shared" si="4"/>
         <v>18348</v>
       </c>
-      <c r="Y14" s="51">
+      <c r="Y14" s="47">
         <f t="shared" si="4"/>
         <v>35538.300139999999</v>
       </c>
-      <c r="Z14" s="57">
+      <c r="Z14" s="51">
         <f t="shared" si="5"/>
         <v>0.83566474672769098</v>
       </c>
-      <c r="AA14" s="57">
+      <c r="AA14" s="51">
         <f t="shared" si="6"/>
         <v>2.0021975422761133E-2</v>
       </c>
-      <c r="AB14" s="57">
+      <c r="AB14" s="51">
         <f t="shared" si="7"/>
         <v>2.1083682657746763E-2</v>
       </c>
-      <c r="AC14" s="57">
+      <c r="AC14" s="51">
         <f t="shared" si="8"/>
         <v>7.2711725562915885E-2</v>
       </c>
-      <c r="AD14" s="57">
+      <c r="AD14" s="51">
         <f t="shared" si="9"/>
         <v>1.7201067238660588E-2</v>
       </c>
-      <c r="AE14" s="57">
+      <c r="AE14" s="51">
         <f>Y14/AF14</f>
         <v>3.3316802390224602E-2</v>
       </c>
-      <c r="AF14" s="56">
+      <c r="AF14" s="50">
         <f>SUM(T14:Y14)</f>
         <v>1066678</v>
       </c>
-      <c r="AG14" s="61">
+      <c r="AG14" s="55">
         <f t="shared" ref="AG14:AG15" si="18">AF14-AF13</f>
         <v>1.6479496844112873E-3</v>
       </c>
-      <c r="AH14" s="60">
+      <c r="AH14" s="54">
         <f t="shared" si="12"/>
         <v>1.5449364165730096E-9</v>
       </c>
-      <c r="AI14" s="60">
+      <c r="AI14" s="54">
         <f t="shared" si="17"/>
         <v>1.0666780000000005</v>
       </c>
-      <c r="AJ14" s="59">
+      <c r="AJ14" s="53">
         <v>3900.110107</v>
       </c>
-      <c r="AK14" s="62">
+      <c r="AK14" s="56">
         <f t="shared" si="14"/>
         <v>-11.629883000000063</v>
       </c>
-      <c r="AL14" s="60">
+      <c r="AL14" s="54">
         <f t="shared" si="15"/>
         <v>-2.9730715818870324E-3</v>
       </c>
-      <c r="AM14" s="60">
+      <c r="AM14" s="54">
         <f t="shared" si="16"/>
         <v>0.99702692841811302</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="A15" s="54">
+      <c r="A15" s="49">
         <v>44739</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="47">
         <v>202.509995</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="47">
         <v>438.26001000000002</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="47">
         <v>75.769997000000004</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="47">
         <v>118.410004</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="47">
         <v>495.16000400000001</v>
       </c>
-      <c r="O15" s="51">
+      <c r="O15" s="47">
         <v>200</v>
       </c>
-      <c r="P15" s="51">
+      <c r="P15" s="47">
         <v>100</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="47">
         <v>2000</v>
       </c>
-      <c r="R15" s="51">
+      <c r="R15" s="47">
         <v>300</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="47">
         <v>140</v>
       </c>
-      <c r="T15" s="56">
+      <c r="T15" s="50">
         <f>T14-(O15-O14)*I15-(P15-P14)*J15-(Q15-Q14)*K15-(R15-R14)*L15-(S15-S14)*M15</f>
         <v>721028.50283000001</v>
       </c>
-      <c r="U15" s="51">
+      <c r="U15" s="47">
         <f t="shared" si="1"/>
         <v>40501.999000000003</v>
       </c>
-      <c r="V15" s="51">
+      <c r="V15" s="47">
         <f t="shared" si="2"/>
         <v>43826.001000000004</v>
       </c>
-      <c r="W15" s="51">
+      <c r="W15" s="47">
         <f t="shared" si="3"/>
         <v>151539.99400000001</v>
       </c>
-      <c r="X15" s="51">
+      <c r="X15" s="47">
         <f t="shared" si="4"/>
         <v>35523.001199999999</v>
       </c>
-      <c r="Y15" s="51">
+      <c r="Y15" s="47">
         <f t="shared" si="4"/>
         <v>69322.400560000009</v>
       </c>
-      <c r="Z15" s="57">
+      <c r="Z15" s="51">
         <f t="shared" ref="Z15" si="19">T15/AF15</f>
         <v>0.67909960395038604</v>
       </c>
-      <c r="AA15" s="57">
+      <c r="AA15" s="51">
         <f t="shared" ref="AA15" si="20">U15/AF15</f>
         <v>3.8146746449195336E-2</v>
       </c>
-      <c r="AB15" s="57">
+      <c r="AB15" s="51">
         <f t="shared" ref="AB15" si="21">V15/AF15</f>
         <v>4.1277452701264976E-2</v>
       </c>
-      <c r="AC15" s="57">
+      <c r="AC15" s="51">
         <f t="shared" ref="AC15" si="22">W15/AF15</f>
         <v>0.14272771395877479</v>
       </c>
-      <c r="AD15" s="57">
+      <c r="AD15" s="51">
         <f t="shared" ref="AD15" si="23">X15/AF15</f>
         <v>3.345728490810692E-2</v>
       </c>
-      <c r="AE15" s="57">
+      <c r="AE15" s="51">
         <f>Y15/AF15</f>
         <v>6.529119803227186E-2</v>
       </c>
-      <c r="AF15" s="56">
+      <c r="AF15" s="50">
         <f>SUM(T15:Y15)</f>
         <v>1061741.8985900001</v>
       </c>
-      <c r="AG15" s="61">
+      <c r="AG15" s="55">
         <f t="shared" si="18"/>
         <v>-4936.1014099998865</v>
       </c>
-      <c r="AH15" s="60">
+      <c r="AH15" s="54">
         <f t="shared" si="12"/>
         <v>-4.6275459041996616E-3</v>
       </c>
-      <c r="AI15" s="60">
+      <c r="AI15" s="54">
         <f t="shared" si="17"/>
         <v>1.0617418985900005</v>
       </c>
-      <c r="AJ15" s="59">
+      <c r="AJ15" s="53">
         <v>3821.5500489999999</v>
       </c>
-      <c r="AK15" s="62">
+      <c r="AK15" s="56">
         <f t="shared" si="14"/>
         <v>-78.560058000000026</v>
       </c>
-      <c r="AL15" s="60">
+      <c r="AL15" s="54">
         <f t="shared" si="15"/>
         <v>-2.0143035925831627E-2</v>
       </c>
-      <c r="AM15" s="60">
+      <c r="AM15" s="54">
         <f t="shared" si="16"/>
         <v>0.97985696407416834</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" s="54">
+      <c r="A16" s="49">
         <v>44739</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="47">
         <v>213.570007</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="47">
         <v>449.790009</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="47">
         <v>77.559997999999993</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="47">
         <v>122.32</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="47">
         <v>507.69000199999999</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="47">
         <v>200</v>
       </c>
-      <c r="P16" s="51">
+      <c r="P16" s="47">
         <v>100</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="47">
         <v>2000</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="47">
         <v>300</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="47">
         <v>140</v>
       </c>
-      <c r="T16" s="56">
+      <c r="T16" s="50">
         <f>T15-(O16-O15)*I16-(P16-P15)*J16-(Q16-Q15)*K16-(R16-R15)*L16-(S16-S15)*M16</f>
         <v>721028.50283000001</v>
       </c>
-      <c r="U16" s="51">
+      <c r="U16" s="47">
         <f t="shared" ref="U16" si="24">I16*O16</f>
         <v>42714.001400000001</v>
       </c>
-      <c r="V16" s="51">
+      <c r="V16" s="47">
         <f t="shared" ref="V16" si="25">J16*P16</f>
         <v>44979.000899999999</v>
       </c>
-      <c r="W16" s="51">
+      <c r="W16" s="47">
         <f t="shared" ref="W16" si="26">K16*Q16</f>
         <v>155119.99599999998</v>
       </c>
-      <c r="X16" s="51">
+      <c r="X16" s="47">
         <f t="shared" ref="X16" si="27">L16*R16</f>
         <v>36696</v>
       </c>
-      <c r="Y16" s="51">
+      <c r="Y16" s="47">
         <f t="shared" ref="Y16" si="28">M16*S16</f>
         <v>71076.600279999999</v>
       </c>
-      <c r="Z16" s="57">
+      <c r="Z16" s="51">
         <f t="shared" ref="Z16" si="29">T16/AF16</f>
         <v>0.67284342552164145</v>
       </c>
-      <c r="AA16" s="57">
+      <c r="AA16" s="51">
         <f t="shared" ref="AA16" si="30">U16/AF16</f>
         <v>3.9859499183332987E-2</v>
       </c>
-      <c r="AB16" s="57">
+      <c r="AB16" s="51">
         <f t="shared" ref="AB16" si="31">V16/AF16</f>
         <v>4.1973132717102069E-2</v>
       </c>
-      <c r="AC16" s="57">
+      <c r="AC16" s="51">
         <f t="shared" ref="AC16" si="32">W16/AF16</f>
         <v>0.14475359720994474</v>
       </c>
-      <c r="AD16" s="57">
+      <c r="AD16" s="51">
         <f t="shared" ref="AD16" si="33">X16/AF16</f>
         <v>3.424367032098255E-2</v>
       </c>
-      <c r="AE16" s="57">
+      <c r="AE16" s="51">
         <f>Y16/AF16</f>
         <v>6.6326675046996297E-2</v>
       </c>
-      <c r="AF16" s="56">
+      <c r="AF16" s="50">
         <f>SUM(T16:Y16)</f>
         <v>1071614.1014099999</v>
       </c>
-      <c r="AG16" s="61">
+      <c r="AG16" s="55">
         <f t="shared" ref="AG16" si="34">AF16-AF15</f>
         <v>9872.2028199997731</v>
       </c>
-      <c r="AH16" s="60">
+      <c r="AH16" s="54">
         <f t="shared" ref="AH16" si="35">AG16/AF15</f>
         <v>9.2981192822004302E-3</v>
       </c>
-      <c r="AI16" s="60">
+      <c r="AI16" s="54">
         <f t="shared" si="17"/>
         <v>1.0716141014100002</v>
       </c>
-      <c r="AJ16" s="66">
+      <c r="AJ16" s="60">
         <v>3900.110107</v>
       </c>
-      <c r="AK16" s="62">
+      <c r="AK16" s="56">
         <f t="shared" ref="AK16:AK20" si="36">AJ16-AJ15</f>
         <v>78.560058000000026</v>
       </c>
-      <c r="AL16" s="60">
+      <c r="AL16" s="54">
         <f t="shared" ref="AL16:AL20" si="37">AK16/AJ15</f>
         <v>2.0557118706467589E-2</v>
       </c>
-      <c r="AM16" s="60">
+      <c r="AM16" s="54">
         <f t="shared" ref="AM16:AM20" si="38">1*(1+AL16)</f>
         <v>1.0205571187064675</v>
       </c>
     </row>
     <row r="17" spans="1:39">
-      <c r="A17" s="54">
+      <c r="A17" s="49">
         <v>44740</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="47">
         <v>202.509995</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="47">
         <v>438.26001000000002</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="47">
         <v>75.769997000000004</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="47">
         <v>118.410004</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="47">
         <v>495.16000400000001</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="47">
         <v>300</v>
       </c>
-      <c r="P17" s="51">
+      <c r="P17" s="47">
         <v>150</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="47">
         <v>3000</v>
       </c>
-      <c r="R17" s="51">
+      <c r="R17" s="47">
         <v>400</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="47">
         <v>180</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="50">
         <f>T16-(O17-O16)*I17-(P17-P16)*J17-(Q17-Q16)*K17-(R17-R16)*L17-(S17-S16)*M17</f>
         <v>571447.10527000006</v>
       </c>
-      <c r="U17" s="51">
+      <c r="U17" s="47">
         <f t="shared" ref="U17:U18" si="39">I17*O17</f>
         <v>60752.998500000002</v>
       </c>
-      <c r="V17" s="51">
+      <c r="V17" s="47">
         <f t="shared" ref="V17:V18" si="40">J17*P17</f>
         <v>65739.001499999998</v>
       </c>
-      <c r="W17" s="51">
+      <c r="W17" s="47">
         <f t="shared" ref="W17:W18" si="41">K17*Q17</f>
         <v>227309.99100000001</v>
       </c>
-      <c r="X17" s="51">
+      <c r="X17" s="47">
         <f t="shared" ref="X17:X18" si="42">L17*R17</f>
         <v>47364.001600000003</v>
       </c>
-      <c r="Y17" s="51">
+      <c r="Y17" s="47">
         <f t="shared" ref="Y17:Y18" si="43">M17*S17</f>
         <v>89128.800719999999</v>
       </c>
-      <c r="Z17" s="57">
+      <c r="Z17" s="51">
         <f t="shared" ref="Z17" si="44">T17/AF17</f>
         <v>0.53821659108384567</v>
       </c>
-      <c r="AA17" s="57">
+      <c r="AA17" s="51">
         <f t="shared" ref="AA17" si="45">U17/AF17</f>
         <v>5.7220119673793E-2</v>
       </c>
-      <c r="AB17" s="57">
+      <c r="AB17" s="51">
         <f t="shared" ref="AB17" si="46">V17/AF17</f>
         <v>6.1916179051897453E-2</v>
       </c>
-      <c r="AC17" s="57">
+      <c r="AC17" s="51">
         <f t="shared" ref="AC17" si="47">W17/AF17</f>
         <v>0.2140915709381622</v>
       </c>
-      <c r="AD17" s="57">
+      <c r="AD17" s="51">
         <f t="shared" ref="AD17" si="48">X17/AF17</f>
         <v>4.4609713210809233E-2</v>
       </c>
-      <c r="AE17" s="57">
+      <c r="AE17" s="51">
         <f>Y17/AF17</f>
         <v>8.394582604149238E-2</v>
       </c>
-      <c r="AF17" s="56">
+      <c r="AF17" s="50">
         <f>SUM(T17:Y17)</f>
         <v>1061741.8985900001</v>
       </c>
-      <c r="AG17" s="61">
+      <c r="AG17" s="55">
         <f t="shared" ref="AG17" si="49">AF17-AF16</f>
         <v>-9872.2028199997731</v>
       </c>
-      <c r="AH17" s="60">
+      <c r="AH17" s="54">
         <f t="shared" ref="AH17" si="50">AG17/AF16</f>
         <v>-9.2124607235106407E-3</v>
       </c>
-      <c r="AI17" s="60">
+      <c r="AI17" s="54">
         <f t="shared" ref="AI17" si="51">AI16*(1+AH17)</f>
         <v>1.0617418985900005</v>
       </c>
-      <c r="AJ17" s="66">
+      <c r="AJ17" s="60">
         <v>3821.5500489999999</v>
       </c>
-      <c r="AK17" s="62">
+      <c r="AK17" s="56">
         <f t="shared" si="36"/>
         <v>-78.560058000000026</v>
       </c>
-      <c r="AL17" s="60">
+      <c r="AL17" s="54">
         <f t="shared" si="37"/>
         <v>-2.0143035925831627E-2</v>
       </c>
-      <c r="AM17" s="60">
+      <c r="AM17" s="54">
         <f t="shared" si="38"/>
         <v>0.97985696407416834</v>
       </c>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="54">
+      <c r="A18" s="49">
         <v>44741</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="47">
         <v>205.229996</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="47">
         <v>427.04998799999998</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="47">
         <v>75.519997000000004</v>
       </c>
-      <c r="L18" s="51">
+      <c r="L18" s="47">
         <v>116.099998</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="47">
         <v>496.07000699999998</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="47">
         <v>300</v>
       </c>
-      <c r="P18" s="51">
+      <c r="P18" s="47">
         <v>150</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="47">
         <v>3000</v>
       </c>
-      <c r="R18" s="51">
+      <c r="R18" s="47">
         <v>400</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="47">
         <v>180</v>
       </c>
-      <c r="T18" s="56">
+      <c r="T18" s="50">
         <f>T17-(O18-O17)*I18-(P18-P17)*J18-(Q18-Q17)*K18-(R18-R17)*L18-(S18-S17)*M18</f>
         <v>571447.10527000006</v>
       </c>
-      <c r="U18" s="51">
+      <c r="U18" s="47">
         <f t="shared" si="39"/>
         <v>61568.998800000001</v>
       </c>
-      <c r="V18" s="51">
+      <c r="V18" s="47">
         <f t="shared" si="40"/>
         <v>64057.498199999995</v>
       </c>
-      <c r="W18" s="51">
+      <c r="W18" s="47">
         <f t="shared" si="41"/>
         <v>226559.99100000001</v>
       </c>
-      <c r="X18" s="51">
+      <c r="X18" s="47">
         <f t="shared" si="42"/>
         <v>46439.999199999998</v>
       </c>
-      <c r="Y18" s="51">
+      <c r="Y18" s="47">
         <f t="shared" si="43"/>
         <v>89292.601259999996</v>
       </c>
-      <c r="Z18" s="57">
+      <c r="Z18" s="51">
         <f t="shared" ref="Z18" si="52">T18/AF18</f>
         <v>0.53942358048820682</v>
       </c>
-      <c r="AA18" s="57">
+      <c r="AA18" s="51">
         <f t="shared" ref="AA18" si="53">U18/AF18</f>
         <v>5.8118712079358689E-2</v>
       </c>
-      <c r="AB18" s="57">
+      <c r="AB18" s="51">
         <f t="shared" ref="AB18" si="54">V18/AF18</f>
         <v>6.0467757588577795E-2</v>
       </c>
-      <c r="AC18" s="57">
+      <c r="AC18" s="51">
         <f t="shared" ref="AC18" si="55">W18/AF18</f>
         <v>0.21386371619268718</v>
       </c>
-      <c r="AD18" s="57">
+      <c r="AD18" s="51">
         <f t="shared" ref="AD18" si="56">X18/AF18</f>
         <v>4.3837531794823463E-2</v>
       </c>
-      <c r="AE18" s="57">
+      <c r="AE18" s="51">
         <f>Y18/AF18</f>
         <v>8.4288701856345932E-2</v>
       </c>
-      <c r="AF18" s="56">
+      <c r="AF18" s="50">
         <f>SUM(T18:Y18)</f>
         <v>1059366.1937300002</v>
       </c>
-      <c r="AG18" s="61">
+      <c r="AG18" s="55">
         <f t="shared" ref="AG18" si="57">AF18-AF17</f>
         <v>-2375.7048599999398</v>
       </c>
-      <c r="AH18" s="60">
+      <c r="AH18" s="54">
         <f t="shared" ref="AH18" si="58">AG18/AF17</f>
         <v>-2.2375540262232194E-3</v>
       </c>
-      <c r="AI18" s="60">
+      <c r="AI18" s="54">
         <f>AI17*(1+AH18)</f>
         <v>1.0593661937300005</v>
       </c>
-      <c r="AJ18" s="66">
+      <c r="AJ18" s="60">
         <v>3818.830078</v>
       </c>
-      <c r="AK18" s="62">
+      <c r="AK18" s="56">
         <f t="shared" si="36"/>
         <v>-2.7199709999999868</v>
       </c>
-      <c r="AL18" s="60">
+      <c r="AL18" s="54">
         <f t="shared" si="37"/>
         <v>-7.1174548681149222E-4</v>
       </c>
-      <c r="AM18" s="60">
+      <c r="AM18" s="54">
         <f t="shared" si="38"/>
         <v>0.99928825451318848</v>
       </c>
     </row>
     <row r="19" spans="1:39">
-      <c r="A19" s="54">
+      <c r="A19" s="49">
         <v>44742</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="47">
         <v>203.94000199999999</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="47">
         <v>426.14999399999999</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="47">
         <v>74.889999000000003</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="47">
         <v>110.949997</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="47">
         <v>495</v>
       </c>
-      <c r="O19" s="51">
+      <c r="O19" s="47">
         <v>400</v>
       </c>
-      <c r="P19" s="51">
+      <c r="P19" s="47">
         <v>200</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="47">
         <v>4000</v>
       </c>
-      <c r="R19" s="51">
+      <c r="R19" s="47">
         <v>500</v>
       </c>
-      <c r="S19" s="51">
+      <c r="S19" s="47">
         <v>220</v>
       </c>
-      <c r="T19" s="56">
+      <c r="T19" s="50">
         <f t="shared" ref="T19:T20" si="59">T18-(O19-O18)*I19-(P19-P18)*J19-(Q19-Q18)*K19-(R19-R18)*L19-(S19-S18)*M19</f>
         <v>423960.60667000001</v>
       </c>
-      <c r="U19" s="51">
+      <c r="U19" s="47">
         <f t="shared" ref="U19:U20" si="60">I19*O19</f>
         <v>81576.000799999994</v>
       </c>
-      <c r="V19" s="51">
+      <c r="V19" s="47">
         <f t="shared" ref="V19:V20" si="61">J19*P19</f>
         <v>85229.998800000001</v>
       </c>
-      <c r="W19" s="51">
+      <c r="W19" s="47">
         <f t="shared" ref="W19:W20" si="62">K19*Q19</f>
         <v>299559.99599999998</v>
       </c>
-      <c r="X19" s="51">
+      <c r="X19" s="47">
         <f t="shared" ref="X19:X20" si="63">L19*R19</f>
         <v>55474.998500000002</v>
       </c>
-      <c r="Y19" s="51">
+      <c r="Y19" s="47">
         <f t="shared" ref="Y19:Y20" si="64">M19*S19</f>
         <v>108900</v>
       </c>
-      <c r="Z19" s="57">
+      <c r="Z19" s="51">
         <f t="shared" ref="Z19:Z20" si="65">T19/AF19</f>
         <v>0.40197208988825039</v>
       </c>
-      <c r="AA19" s="57">
+      <c r="AA19" s="51">
         <f t="shared" ref="AA19:AA20" si="66">U19/AF19</f>
         <v>7.7345100017335966E-2</v>
       </c>
-      <c r="AB19" s="57">
+      <c r="AB19" s="51">
         <f t="shared" ref="AB19:AB20" si="67">V19/AF19</f>
         <v>8.0809585135527079E-2</v>
       </c>
-      <c r="AC19" s="57">
+      <c r="AC19" s="51">
         <f t="shared" ref="AC19:AC20" si="68">W19/AF19</f>
         <v>0.28402345818125424</v>
       </c>
-      <c r="AD19" s="57">
+      <c r="AD19" s="51">
         <f t="shared" ref="AD19:AD20" si="69">X19/AF19</f>
         <v>5.2597813883566394E-2</v>
       </c>
-      <c r="AE19" s="57">
+      <c r="AE19" s="51">
         <f t="shared" ref="AE19:AE20" si="70">Y19/AF19</f>
         <v>0.10325195289406597</v>
       </c>
-      <c r="AF19" s="56">
+      <c r="AF19" s="50">
         <f t="shared" ref="AF19:AF20" si="71">SUM(T19:Y19)</f>
         <v>1054701.6007699999</v>
       </c>
-      <c r="AG19" s="61">
+      <c r="AG19" s="55">
         <f t="shared" ref="AG19:AG20" si="72">AF19-AF18</f>
         <v>-4664.592960000271</v>
       </c>
-      <c r="AH19" s="60">
+      <c r="AH19" s="54">
         <f t="shared" ref="AH19:AH20" si="73">AG19/AF18</f>
         <v>-4.403192198890511E-3</v>
       </c>
-      <c r="AI19" s="60">
+      <c r="AI19" s="54">
         <f t="shared" ref="AI19:AI20" si="74">AI18*(1+AH19)</f>
         <v>1.0547016007700003</v>
       </c>
-      <c r="AJ19" s="66">
+      <c r="AJ19" s="60">
         <v>3785.3798830000001</v>
       </c>
-      <c r="AK19" s="62">
+      <c r="AK19" s="56">
         <f t="shared" si="36"/>
         <v>-33.450194999999894</v>
       </c>
-      <c r="AL19" s="60">
+      <c r="AL19" s="54">
         <f t="shared" si="37"/>
         <v>-8.7592781864540177E-3</v>
       </c>
-      <c r="AM19" s="60">
+      <c r="AM19" s="54">
         <f t="shared" si="38"/>
         <v>0.99124072181354594</v>
       </c>
     </row>
     <row r="20" spans="1:39">
-      <c r="A20" s="54">
+      <c r="A20" s="49">
         <v>44743</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="47">
         <v>210.63000500000001</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="47">
         <v>394.82998700000002</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="47">
         <v>75.400002000000001</v>
       </c>
-      <c r="L20" s="51">
+      <c r="L20" s="47">
         <v>112.80999799999999</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="47">
         <v>502.33999599999999</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="47">
         <v>400</v>
       </c>
-      <c r="P20" s="51">
+      <c r="P20" s="47">
         <v>200</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="47">
         <v>4000</v>
       </c>
-      <c r="R20" s="51">
+      <c r="R20" s="47">
         <v>500</v>
       </c>
-      <c r="S20" s="51">
+      <c r="S20" s="47">
         <v>220</v>
       </c>
-      <c r="T20" s="56">
+      <c r="T20" s="50">
         <f t="shared" si="59"/>
         <v>423960.60667000001</v>
       </c>
-      <c r="U20" s="51">
+      <c r="U20" s="47">
         <f t="shared" si="60"/>
         <v>84252.002000000008</v>
       </c>
-      <c r="V20" s="51">
+      <c r="V20" s="47">
         <f t="shared" si="61"/>
         <v>78965.997400000007</v>
       </c>
-      <c r="W20" s="51">
+      <c r="W20" s="47">
         <f t="shared" si="62"/>
         <v>301600.00800000003</v>
       </c>
-      <c r="X20" s="51">
+      <c r="X20" s="47">
         <f t="shared" si="63"/>
         <v>56404.998999999996</v>
       </c>
-      <c r="Y20" s="51">
+      <c r="Y20" s="47">
         <f t="shared" si="64"/>
         <v>110514.79912</v>
       </c>
-      <c r="Z20" s="57">
+      <c r="Z20" s="51">
         <f t="shared" si="65"/>
         <v>0.4015925398528471</v>
       </c>
-      <c r="AA20" s="57">
+      <c r="AA20" s="51">
         <f t="shared" si="66"/>
         <v>7.9806885211869294E-2</v>
       </c>
-      <c r="AB20" s="57">
+      <c r="AB20" s="51">
         <f t="shared" si="67"/>
         <v>7.4799769032699887E-2</v>
       </c>
-      <c r="AC20" s="57">
+      <c r="AC20" s="51">
         <f t="shared" si="68"/>
         <v>0.28568765901081922</v>
       </c>
-      <c r="AD20" s="57">
+      <c r="AD20" s="51">
         <f t="shared" si="69"/>
         <v>5.3429083864008374E-2</v>
       </c>
-      <c r="AE20" s="57">
+      <c r="AE20" s="51">
         <f t="shared" si="70"/>
         <v>0.1046840630277561</v>
       </c>
-      <c r="AF20" s="56">
+      <c r="AF20" s="50">
         <f t="shared" si="71"/>
         <v>1055698.4121900001</v>
       </c>
-      <c r="AG20" s="61">
+      <c r="AG20" s="55">
         <f t="shared" si="72"/>
         <v>996.81142000015825</v>
       </c>
-      <c r="AH20" s="60">
+      <c r="AH20" s="54">
         <f t="shared" si="73"/>
         <v>9.4511226613520059E-4</v>
       </c>
-      <c r="AI20" s="60">
+      <c r="AI20" s="54">
         <f t="shared" si="74"/>
         <v>1.0556984121900006</v>
       </c>
-      <c r="AJ20" s="66">
+      <c r="AJ20" s="60">
         <v>3825.330078</v>
       </c>
-      <c r="AK20" s="62">
+      <c r="AK20" s="56">
         <f t="shared" si="36"/>
         <v>39.950194999999894</v>
       </c>
-      <c r="AL20" s="60">
+      <c r="AL20" s="54">
         <f t="shared" si="37"/>
         <v>1.0553813945970054E-2</v>
       </c>
-      <c r="AM20" s="60">
+      <c r="AM20" s="54">
         <f t="shared" si="38"/>
         <v>1.01055381394597</v>
       </c>
     </row>
     <row r="21" spans="1:39">
-      <c r="A21" s="54"/>
-      <c r="I21" s="51">
+      <c r="A21" s="49"/>
+      <c r="I21" s="47">
         <f t="shared" ref="I21:L21" si="75">I20/I14-1</f>
         <v>-1.3765987281163516E-2</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="47">
         <f t="shared" si="75"/>
         <v>-0.12219040196599829</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="47">
         <f t="shared" si="75"/>
         <v>-2.7849356055939967E-2</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="47">
         <f t="shared" si="75"/>
         <v>-7.774690974493137E-2</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="47">
         <f>M20/M14-1</f>
         <v>-1.0537938464267871E-2</v>
       </c>
     </row>
     <row r="22" spans="1:39">
-      <c r="A22" s="54"/>
+      <c r="A22" s="49"/>
     </row>
     <row r="23" spans="1:39">
-      <c r="A23" s="54"/>
+      <c r="A23" s="49"/>
     </row>
     <row r="24" spans="1:39">
-      <c r="A24" s="54"/>
+      <c r="A24" s="49"/>
     </row>
     <row r="25" spans="1:39">
-      <c r="A25" s="54"/>
+      <c r="A25" s="49"/>
     </row>
     <row r="26" spans="1:39">
-      <c r="A26" s="54"/>
+      <c r="A26" s="49"/>
     </row>
     <row r="27" spans="1:39">
-      <c r="A27" s="54"/>
+      <c r="A27" s="49"/>
     </row>
     <row r="28" spans="1:39">
-      <c r="A28" s="54"/>
+      <c r="A28" s="49"/>
     </row>
     <row r="29" spans="1:39">
-      <c r="A29" s="54"/>
+      <c r="A29" s="49"/>
     </row>
     <row r="30" spans="1:39">
-      <c r="A30" s="54"/>
+      <c r="A30" s="49"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="A31" s="54"/>
+      <c r="A31" s="49"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="A32" s="54"/>
+      <c r="A32" s="49"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="49"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="49"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6282,40 +6259,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436ADA6A-8DDC-4057-AC8A-8FBB0F233000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.65234375" customWidth="1"/>
+    <col min="4" max="4" width="29.53515625" customWidth="1"/>
+    <col min="5" max="5" width="26.53515625" customWidth="1"/>
+    <col min="6" max="6" width="29.8828125" customWidth="1"/>
+    <col min="7" max="7" width="27.34375" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.53515625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.53515625" customWidth="1"/>
+    <col min="12" max="12" width="12.8828125" customWidth="1"/>
+    <col min="13" max="13" width="14.421875" customWidth="1"/>
+    <col min="14" max="14" width="12.65234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.8">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:14" ht="22.75">
+      <c r="A1" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -6325,7 +6302,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="28.2" thickBot="1">
+    <row r="2" spans="1:14" ht="28.95" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -6349,32 +6326,32 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:14" ht="15.25" thickBot="1">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="42" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="2"/>
@@ -6384,10 +6361,10 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="54">
+      <c r="A4" s="49">
         <v>44725</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <f>'Basic Data'!AF5*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>980000</v>
       </c>
@@ -6405,10 +6382,10 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="54">
+      <c r="A5" s="49">
         <v>44726</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <f>'Basic Data'!AF6*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>983710.27856445289</v>
       </c>
@@ -6447,10 +6424,10 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="54">
+      <c r="A6" s="49">
         <v>44727</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <f>'Basic Data'!AF7*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>989331.56161498989</v>
       </c>
@@ -6489,10 +6466,10 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="54">
+      <c r="A7" s="49">
         <v>44728</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <f>'Basic Data'!AF8*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>981158.36071777297</v>
       </c>
@@ -6531,10 +6508,10 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="54">
+      <c r="A8" s="49">
         <v>44729</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <f>'Basic Data'!AF9*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>986991.31964111386</v>
       </c>
@@ -6573,10 +6550,10 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="54">
+      <c r="A9" s="49">
         <v>44733</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <f>'Basic Data'!AF10*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>996752.11425781273</v>
       </c>
@@ -6615,10 +6592,10 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="54">
+      <c r="A10" s="49">
         <v>44734</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <f>'Basic Data'!AF11*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1000962.1964111328</v>
       </c>
@@ -6657,10 +6634,10 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="54">
+      <c r="A11" s="49">
         <v>44735</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <f>'Basic Data'!AF12*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1013580.6848449705</v>
       </c>
@@ -6699,10 +6676,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="54">
+      <c r="A12" s="49">
         <v>44736</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <f>'Basic Data'!AF13*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1045344.4383850093</v>
       </c>
@@ -6741,10 +6718,10 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="54">
+      <c r="A13" s="49">
         <v>44736</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <f>'Basic Data'!AF14*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1045344.44</v>
       </c>
@@ -6783,10 +6760,10 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="54">
+      <c r="A14" s="49">
         <v>44739</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <f>'Basic Data'!AF15*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1040507.0606182001</v>
       </c>
@@ -6825,10 +6802,10 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="54">
+      <c r="A15" s="49">
         <v>44739</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <f>'Basic Data'!AF16*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1050181.8193817998</v>
       </c>
@@ -6867,10 +6844,10 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="54">
+      <c r="A16" s="49">
         <v>44740</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <f>'Basic Data'!AF17*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1040507.0606182001</v>
       </c>
@@ -6909,10 +6886,10 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="54">
+      <c r="A17" s="49">
         <v>44741</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <f>'Basic Data'!AF18*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1038178.8698554002</v>
       </c>
@@ -6951,10 +6928,10 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="54">
+      <c r="A18" s="49">
         <v>44742</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <f>'Basic Data'!AF19*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1033607.5687545999</v>
       </c>
@@ -6993,10 +6970,10 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="54">
+      <c r="A19" s="49">
         <v>44743</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <f>'Basic Data'!AF20*(1-'Portfolio and Benchmark'!$B$2)</f>
         <v>1034584.4439462001</v>
       </c>
@@ -7035,8 +7012,8 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -7051,8 +7028,8 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -7067,8 +7044,8 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -7083,8 +7060,8 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -7129,25 +7106,25 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <f>AVERAGE(C5:C19)</f>
         <v>3.666949672473086E-3</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="16">
         <f>AVERAGE(E5:E19)</f>
         <v>1.4773123808721395E-3</v>
       </c>
@@ -7158,14 +7135,14 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <f>PRODUCT(D5:D19)^(1/COUNT(D5:D23))-1</f>
         <v>3.6200399059134192E-3</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <f>PRODUCT(F5:F19)^(1/COUNT(D5:D19))-1</f>
         <v>1.3333962641908226E-3</v>
       </c>
@@ -7176,14 +7153,14 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2"/>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="19">
         <f>PRODUCT(D5:D19)-1</f>
         <v>5.5698412190000823E-2</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <f>PRODUCT(F5:F19)-1</f>
         <v>2.0188711249397695E-2</v>
       </c>
@@ -7191,14 +7168,14 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <f>(1+C33)^(252/COUNT(D5:D19))-1</f>
         <v>1.4858206329384434</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="18">
         <f>(1+D33)^(252/COUNT(D5:D19))-1</f>
         <v>0.39904804344722322</v>
       </c>
@@ -7206,14 +7183,14 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2"/>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="20">
         <f>_xlfn.STDEV.S(C5:C19)</f>
         <v>1.0083760312759021E-2</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="20">
         <f>_xlfn.STDEV.S(E5:E19)</f>
         <v>1.7553298491601064E-2</v>
       </c>
@@ -7222,16 +7199,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1">
+    <row r="36" spans="1:11" ht="15.25" thickBot="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="21">
         <f>C35*252^0.5</f>
         <v>0.1600747324076596</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="21">
         <f>D35*252^0.5</f>
         <v>0.27864997498596972</v>
       </c>
@@ -7239,108 +7216,108 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2"/>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="20">
         <f>(C31-D2/252)/C35</f>
         <v>0.35223668524722129</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="20">
         <f>(D31-D2/252)/D35</f>
         <v>7.7605529037438656E-2</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="50"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="20">
         <f>G51</f>
         <v>2.8874024046947385E-3</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="46" t="s">
+      <c r="F38" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38">
         <v>0.84909997700193041</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2"/>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="20">
         <f>G52</f>
         <v>0.48777844538754239</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="46" t="s">
+      <c r="F39" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39">
         <v>0.72097077094467876</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="20">
         <f>_xlfn.STDEV.S(I5:I19)</f>
         <v>1.0450530656926898E-2</v>
       </c>
-      <c r="D40" s="24"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="46" t="s">
+      <c r="F40" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40">
         <v>0.69950698409426937</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="23.25" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="20">
         <f>C38/C40</f>
         <v>0.27629241992423503</v>
       </c>
-      <c r="D41" s="24"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="46" t="s">
+      <c r="F41" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41">
         <v>5.527639420797135E-3</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="24">
         <f>CORREL(C5:C19,E5:E19)</f>
         <v>0.84909997700192996</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="F42" s="47" t="s">
+      <c r="D42" s="25"/>
+      <c r="F42" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="43">
         <v>15</v>
       </c>
     </row>
@@ -7349,162 +7326,160 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1">
+    <row r="44" spans="1:11" ht="15.25" thickBot="1">
       <c r="F44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="F45" s="49"/>
-      <c r="G45" s="49" t="s">
+      <c r="F45" s="45"/>
+      <c r="G45" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="49" t="s">
+      <c r="H45" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="49" t="s">
+      <c r="I45" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="49" t="s">
+      <c r="J45" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="K45" s="49" t="s">
+      <c r="K45" s="45" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="F46" s="46" t="s">
+      <c r="F46" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46">
         <v>1.0263387402698787E-3</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46">
         <v>1.0263387402698787E-3</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46">
         <v>33.590101130310522</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46">
         <v>6.2194285514695472E-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="F47" s="46" t="s">
+      <c r="F47" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47">
         <v>13</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47">
         <v>3.9721236836255631E-4</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47">
         <v>3.0554797566350487E-5</v>
       </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1">
-      <c r="F48" s="47" t="s">
+    </row>
+    <row r="48" spans="1:11" ht="15.25" thickBot="1">
+      <c r="F48" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="47">
+      <c r="G48" s="43">
         <v>14</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="43">
         <v>1.423551108632435E-3</v>
       </c>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-    </row>
-    <row r="49" spans="6:14" ht="15" thickBot="1"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+    </row>
+    <row r="49" spans="6:14" ht="15.25" thickBot="1"/>
     <row r="50" spans="6:14">
-      <c r="F50" s="49"/>
-      <c r="G50" s="49" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="49" t="s">
+      <c r="H50" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="49" t="s">
+      <c r="I50" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J50" s="49" t="s">
+      <c r="J50" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="49" t="s">
+      <c r="K50" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L50" s="49" t="s">
+      <c r="L50" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="M50" s="49" t="s">
+      <c r="M50" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N50" s="49" t="s">
+      <c r="N50" s="45" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="6:14">
-      <c r="F51" s="46" t="s">
+      <c r="F51" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51">
         <v>2.8874024046947385E-3</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51">
         <v>1.4318277764533819E-3</v>
       </c>
-      <c r="I51" s="46">
+      <c r="I51">
         <v>2.0165849916997667</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51">
         <v>6.4882207816902515E-2</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51">
         <v>-2.0587344500796198E-4</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51">
         <v>5.9806782543974386E-3</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51">
         <v>-2.0587344500796198E-4</v>
       </c>
-      <c r="N51" s="46">
+      <c r="N51">
         <v>5.9806782543974386E-3</v>
       </c>
     </row>
-    <row r="52" spans="6:14" ht="15" thickBot="1">
-      <c r="F52" s="47" t="s">
+    <row r="52" spans="6:14" ht="15.25" thickBot="1">
+      <c r="F52" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G52" s="47">
+      <c r="G52" s="43">
         <v>0.48777844538754239</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="43">
         <v>8.4162174827323133E-2</v>
       </c>
-      <c r="I52" s="47">
+      <c r="I52" s="43">
         <v>5.7956967769467118</v>
       </c>
-      <c r="J52" s="47">
+      <c r="J52" s="43">
         <v>6.2194285514695702E-5</v>
       </c>
-      <c r="K52" s="47">
+      <c r="K52" s="43">
         <v>0.30595712083085164</v>
       </c>
-      <c r="L52" s="47">
+      <c r="L52" s="43">
         <v>0.66959976994423309</v>
       </c>
-      <c r="M52" s="47">
+      <c r="M52" s="43">
         <v>0.30595712083085164</v>
       </c>
-      <c r="N52" s="47">
+      <c r="N52" s="43">
         <v>0.66959976994423309</v>
       </c>
     </row>
@@ -7523,30 +7498,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56931E4F-ED41-4A61-BE62-D1BDB676E01D}">
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.34375" customWidth="1"/>
+    <col min="2" max="2" width="24.8828125" customWidth="1"/>
+    <col min="3" max="3" width="26.421875" customWidth="1"/>
+    <col min="4" max="4" width="22.421875" customWidth="1"/>
+    <col min="5" max="5" width="17.53515625" customWidth="1"/>
+    <col min="6" max="6" width="18.421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.8">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:15" ht="22.75">
+      <c r="A1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -7573,15 +7548,15 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18" thickBot="1">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:15" ht="18.45" thickBot="1">
+      <c r="A3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -7592,21 +7567,21 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:15" ht="15.25" thickBot="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="27" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="1"/>
@@ -7620,25 +7595,25 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <f>SUM('Basic Data'!AA20:AE20)</f>
         <v>0.59840746014715285</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <f>B5-C5</f>
         <v>-0.40159253985284715</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <f>PRODUCT('Portfolio and Benchmark'!F5:F19)-1</f>
         <v>2.0188711249397695E-2</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <f>D5*E5</f>
         <v>-8.1076358270013669E-3</v>
       </c>
@@ -7652,25 +7627,25 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:15" ht="15.25" thickBot="1">
+      <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <f>1-B5</f>
         <v>0.40159253985284715</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <f>B6-C6</f>
         <v>0.40159253985284715</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="34">
         <v>0</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="34">
         <f>D6*E6</f>
         <v>0</v>
       </c>
@@ -7685,12 +7660,12 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -7701,15 +7676,15 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="55.2">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:15" ht="56.6">
+      <c r="A8" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="31">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="29">
         <f>F5+F6</f>
         <v>-8.1076358270013669E-3</v>
       </c>
@@ -7724,12 +7699,12 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -7740,15 +7715,15 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="18" thickBot="1">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:15" ht="18.45" thickBot="1">
+      <c r="A10" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -7759,21 +7734,21 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:15" ht="15.25" thickBot="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="27" t="s">
         <v>68</v>
       </c>
       <c r="G11" s="1"/>
@@ -7787,26 +7762,26 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="37">
         <f>'Portfolio and Benchmark'!C33</f>
         <v>5.5698412190000823E-2</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <f>'Portfolio and Benchmark'!D33</f>
         <v>2.0188711249397695E-2</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <f>B12-C12</f>
         <v>3.5509700940603128E-2</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <f>B5</f>
         <v>0.59840746014715285</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="32">
         <f>D12*E12</f>
         <v>2.1249269950451281E-2</v>
       </c>
@@ -7821,12 +7796,12 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -7838,12 +7813,12 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7854,15 +7829,15 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="41.4">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:15" ht="42.45">
+      <c r="A15" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="31">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="29">
         <f>F8+F12</f>
         <v>1.3141634123449914E-2</v>
       </c>
@@ -7913,7 +7888,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="48"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -10492,45 +10467,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F98B918-9002-4298-A422-B7B5A919CDE9}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.421875" customWidth="1"/>
+    <col min="2" max="2" width="16.8828125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.65234375" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="10.65234375" customWidth="1"/>
+    <col min="7" max="7" width="11.421875" customWidth="1"/>
+    <col min="10" max="10" width="20.421875" customWidth="1"/>
+    <col min="11" max="11" width="17.421875" customWidth="1"/>
+    <col min="12" max="12" width="18.34375" customWidth="1"/>
+    <col min="13" max="13" width="15.11328125" customWidth="1"/>
+    <col min="14" max="14" width="13.53515625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.65234375" customWidth="1"/>
+    <col min="17" max="17" width="13.53515625" customWidth="1"/>
+    <col min="18" max="18" width="13.8828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.8">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:15" ht="22.75">
+      <c r="A1" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="2"/>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2"/>
@@ -10623,7 +10598,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="54">
+      <c r="A10" s="49">
         <v>44726</v>
       </c>
       <c r="B10" s="5"/>
@@ -10637,7 +10612,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="54">
+      <c r="A11" s="49">
         <v>44727</v>
       </c>
       <c r="B11" s="5"/>
@@ -10651,7 +10626,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="54">
+      <c r="A12" s="49">
         <v>44728</v>
       </c>
       <c r="B12" s="5"/>
@@ -10662,7 +10637,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="54">
+      <c r="A13" s="49">
         <v>44729</v>
       </c>
       <c r="B13" s="5"/>
@@ -10675,8 +10650,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="A14" s="54">
+    <row r="14" spans="1:15" ht="15.25" thickBot="1">
+      <c r="A14" s="49">
         <v>44733</v>
       </c>
       <c r="B14" s="5"/>
@@ -10687,7 +10662,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="54">
+      <c r="A15" s="49">
         <v>44734</v>
       </c>
       <c r="B15" s="5"/>
@@ -10696,13 +10671,13 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="50"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="54">
+      <c r="A16" s="49">
         <v>44735</v>
       </c>
       <c r="B16" s="5"/>
@@ -10711,15 +10686,15 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
-      <c r="J16" s="46" t="s">
+      <c r="J16" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16">
         <v>0.79726051651002794</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="54">
+      <c r="A17" s="49">
         <v>44736</v>
       </c>
       <c r="B17" s="5"/>
@@ -10728,15 +10703,15 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
-      <c r="J17" s="46" t="s">
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17">
         <v>0.6356243311858365</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="54">
+      <c r="A18" s="49">
         <v>44736</v>
       </c>
       <c r="B18" s="5"/>
@@ -10745,15 +10720,15 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
-      <c r="J18" s="46" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18">
         <v>0.60036216968769163</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="54">
+      <c r="A19" s="49">
         <v>44739</v>
       </c>
       <c r="B19" s="5"/>
@@ -10762,15 +10737,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
-      <c r="J19" s="46" t="s">
+      <c r="J19" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19">
         <v>6.8761889917221307E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1">
-      <c r="A20" s="54">
+    <row r="20" spans="1:18" ht="15.25" thickBot="1">
+      <c r="A20" s="49">
         <v>44739</v>
       </c>
       <c r="B20" s="5"/>
@@ -10779,15 +10754,15 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="43">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="54">
+      <c r="A21" s="49">
         <v>44740</v>
       </c>
       <c r="B21" s="5"/>
@@ -10797,8 +10772,8 @@
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1">
-      <c r="A22" s="54">
+    <row r="22" spans="1:18" ht="15.25" thickBot="1">
+      <c r="A22" s="49">
         <v>44741</v>
       </c>
       <c r="B22" s="5"/>
@@ -10812,7 +10787,7 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="54">
+      <c r="A23" s="49">
         <v>44742</v>
       </c>
       <c r="B23" s="5"/>
@@ -10821,25 +10796,25 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49" t="s">
+      <c r="J23" s="45"/>
+      <c r="K23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="49" t="s">
+      <c r="N23" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="49" t="s">
+      <c r="O23" s="45" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="54">
+      <c r="A24" s="49">
         <v>44743</v>
       </c>
       <c r="B24" s="5"/>
@@ -10848,22 +10823,22 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="J24" s="46" t="s">
+      <c r="J24" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24">
         <v>2.556868821255347E-3</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24">
         <v>8.5228960708511568E-4</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24">
         <v>18.025676934730072</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24">
         <v>5.9004648279028885E-7</v>
       </c>
     </row>
@@ -10874,22 +10849,20 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
-      <c r="J25" s="46" t="s">
+      <c r="J25" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25">
         <v>31</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25">
         <v>1.4657412265462989E-3</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25">
         <v>4.7281975049880609E-5</v>
       </c>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1">
+    </row>
+    <row r="26" spans="1:18" ht="15.25" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -10897,20 +10870,20 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="43">
         <v>34</v>
       </c>
-      <c r="L26" s="47">
+      <c r="L26" s="43">
         <v>4.0226100478016457E-3</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1">
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.25" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -10927,29 +10900,29 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49" t="s">
+      <c r="J28" s="45"/>
+      <c r="K28" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="49" t="s">
+      <c r="L28" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="49" t="s">
+      <c r="M28" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="49" t="s">
+      <c r="N28" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="49" t="s">
+      <c r="O28" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="49" t="s">
+      <c r="Q28" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="49" t="s">
+      <c r="R28" s="45" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10961,31 +10934,31 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
-      <c r="J29" s="46" t="s">
+      <c r="J29" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29">
         <v>9.4395628795083746E-4</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29">
         <v>1.1906553613799577E-3</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29">
         <v>0.79280396206069359</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29">
         <v>0.43391798432059414</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29">
         <v>-1.4844013316075611E-3</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29">
         <v>3.3723139075092358E-3</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29">
         <v>-1.4844013316075611E-3</v>
       </c>
-      <c r="R29" s="46">
+      <c r="R29">
         <v>3.3723139075092358E-3</v>
       </c>
     </row>
@@ -11000,31 +10973,31 @@
       <c r="I30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30">
         <v>0.63635567601916598</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30">
         <v>9.8492691913996858E-2</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30">
         <v>6.4609430776328809</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30">
         <v>3.3290776011818138E-7</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30">
         <v>0.43547850648879061</v>
       </c>
-      <c r="P30" s="46">
+      <c r="P30">
         <v>0.83723284554954136</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30">
         <v>0.43547850648879061</v>
       </c>
-      <c r="R30" s="46">
+      <c r="R30">
         <v>0.83723284554954136</v>
       </c>
     </row>
@@ -11039,35 +11012,35 @@
       <c r="I31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" t="s">
         <v>77</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31">
         <v>6.3887655982705391E-2</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31">
         <v>0.25870708947810062</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31">
         <v>0.24694976899005097</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31">
         <v>0.80657523366373785</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31">
         <v>-0.46374893168595954</v>
       </c>
-      <c r="P31" s="46">
+      <c r="P31">
         <v>0.59152424365137035</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31">
         <v>-0.46374893168595954</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31">
         <v>0.59152424365137035</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1">
+    <row r="32" spans="1:18" ht="15.25" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -11078,35 +11051,35 @@
       <c r="I32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="47" t="s">
+      <c r="J32" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="43">
         <v>-0.4588669273638587</v>
       </c>
-      <c r="L32" s="47">
+      <c r="L32" s="43">
         <v>0.34987570107685373</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="43">
         <v>-1.3115141347385653</v>
       </c>
-      <c r="N32" s="47">
+      <c r="N32" s="43">
         <v>0.19931506907341059</v>
       </c>
-      <c r="O32" s="47">
+      <c r="O32" s="43">
         <v>-1.1724431242774722</v>
       </c>
-      <c r="P32" s="47">
+      <c r="P32" s="43">
         <v>0.2547092695497547</v>
       </c>
-      <c r="Q32" s="47">
+      <c r="Q32" s="43">
         <v>-1.1724431242774722</v>
       </c>
-      <c r="R32" s="47">
+      <c r="R32" s="43">
         <v>0.2547092695497547</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -11115,7 +11088,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -11124,7 +11097,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -11133,7 +11106,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -11141,14 +11114,8 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-    </row>
-    <row r="37" spans="1:15">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -11156,14 +11123,8 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-    </row>
-    <row r="38" spans="1:15">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -11172,7 +11133,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -11181,7 +11142,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -11190,7 +11151,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -11199,7 +11160,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -11208,7 +11169,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -11217,7 +11178,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
